--- a/biology/Zoologie/Chalcides_chalcides/Chalcides_chalcides.xlsx
+++ b/biology/Zoologie/Chalcides_chalcides/Chalcides_chalcides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chalcides chalcides, ou Luscengola, est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chalcides chalcides, ou Luscengola, est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 dans le nord de la Tunisie et en Libye ;
 en Italie ;
 sur les îles de Sardaigne, de Sicile et d'Elbe en Italie.</t>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La caractéristique principale de cette espèce est de posséder des membres très petits, parce qu’atrophiés. Le corps est en forme de serpent, long de 40 cm au maximum, brillant, d’une couleur allant du vert olive au gris ou au marron, avec des stries noires. La queue, comme pour les Lacertilia, peut se détacher quand l’animal est pris par cette partie du corps : c’est la faculté d’autotomie, comme l’orvet.
 Étant un animal poïkilotherme (à sang froid), il vit dans les zones herbeuses, humides et buissonneuses, exposées au soleil. Il est vivipare.
@@ -576,12 +592,14 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (23 janvier 2014)[3] :
-Chalcides chalcides chalcides (Linnaeus, 1758)[4]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (23 janvier 2014) :
+Chalcides chalcides chalcides (Linnaeus, 1758)
 Chalcides chalcides vittatus (Leuckart, 1828)
-Chalcides striatus (Cuvier, 1829)[5]</t>
+Chalcides striatus (Cuvier, 1829)</t>
         </is>
       </c>
     </row>
@@ -609,7 +627,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Linnaeus, 1758 : Systema naturae per regna tria naturae, secundum classes, ordines, genera, species, cum characteribus, differentiis, synonymis, locis, ed. 10 (texte intégral).
 Leuckart, 1828 : Breves animalium quorundam maxima ex parte marinorum descriptiones. Heidelbergae: Ausgusti Osswaldi, p. 9-23.</t>
